--- a/4.xlsx
+++ b/4.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="11_40DDB68D5B805E71E7593111595ED87656C956C6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17A65BCC-624B-4E42-8B5C-2DE4680CC160}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1860" yWindow="2880" windowWidth="18975" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2205" yWindow="3225" windowWidth="18975" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8234,6 +8234,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -8580,8 +8581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
